--- a/Misc Files & Idea Box/MomentOfInertia and Mass.xlsx
+++ b/Misc Files & Idea Box/MomentOfInertia and Mass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Part</t>
   </si>
@@ -132,13 +132,16 @@
   </si>
   <si>
     <t>gear1</t>
+  </si>
+  <si>
+    <t>1/I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,20 +150,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,13 +192,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +484,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O32" sqref="O31:P32"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +501,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1547,6 +1554,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
+      <c r="G43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" s="1">
+        <f>1/H41</f>
+        <v>48.771714843976213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
